--- a/data/output_for_glycolysis_data_wtitles.xlsx
+++ b/data/output_for_glycolysis_data_wtitles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="glycolysis_data.txt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="101">
   <si>
     <t>Adh2</t>
   </si>
@@ -1075,6 +1075,9 @@
   </si>
   <si>
     <t>MK exp3 insulin/starved (log2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glycolysis?gluconeogenesis pathway (KEGG </t>
   </si>
 </sst>
 </file>
@@ -1481,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ79"/>
+  <dimension ref="A1:AQ80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1624,265 +1627,181 @@
       </c>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>-0.15</v>
-      </c>
-      <c r="E2">
-        <v>-0.47</v>
-      </c>
-      <c r="F2">
-        <v>-0.22</v>
-      </c>
-      <c r="G2">
-        <v>-0.15</v>
-      </c>
-      <c r="H2">
-        <v>-0.33</v>
-      </c>
-      <c r="I2">
-        <v>-0.59</v>
-      </c>
-      <c r="J2">
-        <v>-0.43</v>
-      </c>
-      <c r="K2">
-        <v>-0.17</v>
-      </c>
-      <c r="L2">
-        <v>0.88</v>
-      </c>
-      <c r="M2">
-        <v>-0.32</v>
-      </c>
-      <c r="N2">
-        <v>0.05</v>
-      </c>
-      <c r="O2">
-        <v>-0.36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2">
-        <v>-0.21</v>
-      </c>
-      <c r="R2">
-        <v>-0.73</v>
-      </c>
-      <c r="S2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2">
-        <v>-0.15</v>
-      </c>
-      <c r="U2">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="V2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2">
-        <v>-0.17</v>
-      </c>
-      <c r="X2">
-        <v>-0.15</v>
-      </c>
-      <c r="Y2">
-        <v>0.18</v>
-      </c>
-      <c r="Z2">
-        <v>-0.6</v>
-      </c>
-      <c r="AA2">
-        <v>-0.33</v>
-      </c>
-      <c r="AB2">
-        <v>0.08</v>
-      </c>
-      <c r="AC2">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="AD2">
-        <v>-0.64</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2">
-        <v>-0.65</v>
-      </c>
-      <c r="AG2">
-        <v>-0.2</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI2">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="AJ2">
-        <v>-0.05</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM2">
-        <v>0.88</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ2">
-        <v>-0.32</v>
-      </c>
+      <c r="A2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="4"/>
     </row>
     <row r="3" spans="1:43">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>-0.15</v>
+      </c>
+      <c r="E3">
+        <v>-0.47</v>
+      </c>
+      <c r="F3">
+        <v>-0.22</v>
+      </c>
+      <c r="G3">
+        <v>-0.15</v>
+      </c>
+      <c r="H3">
+        <v>-0.33</v>
+      </c>
+      <c r="I3">
+        <v>-0.59</v>
       </c>
       <c r="J3">
-        <v>-0.14000000000000001</v>
+        <v>-0.43</v>
       </c>
       <c r="K3">
+        <v>-0.17</v>
+      </c>
+      <c r="L3">
+        <v>0.88</v>
+      </c>
+      <c r="M3">
         <v>-0.32</v>
       </c>
-      <c r="L3">
-        <v>-1.02</v>
-      </c>
-      <c r="M3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" t="s">
-        <v>3</v>
+      <c r="N3">
+        <v>0.05</v>
+      </c>
+      <c r="O3">
+        <v>-0.36</v>
       </c>
       <c r="P3" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" t="s">
-        <v>3</v>
+      <c r="Q3">
+        <v>-0.21</v>
+      </c>
+      <c r="R3">
+        <v>-0.73</v>
       </c>
       <c r="S3" t="s">
         <v>3</v>
       </c>
-      <c r="T3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" t="s">
-        <v>3</v>
+      <c r="T3">
+        <v>-0.15</v>
+      </c>
+      <c r="U3">
+        <v>-0.28000000000000003</v>
       </c>
       <c r="V3" t="s">
         <v>3</v>
       </c>
-      <c r="W3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>3</v>
+      <c r="W3">
+        <v>-0.17</v>
+      </c>
+      <c r="X3">
+        <v>-0.15</v>
+      </c>
+      <c r="Y3">
+        <v>0.18</v>
+      </c>
+      <c r="Z3">
+        <v>-0.6</v>
+      </c>
+      <c r="AA3">
+        <v>-0.33</v>
+      </c>
+      <c r="AB3">
+        <v>0.08</v>
+      </c>
+      <c r="AC3">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="AD3">
+        <v>-0.64</v>
       </c>
       <c r="AE3" t="s">
         <v>3</v>
       </c>
       <c r="AF3">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>3</v>
+        <v>-0.65</v>
+      </c>
+      <c r="AG3">
+        <v>-0.2</v>
       </c>
       <c r="AH3" t="s">
         <v>3</v>
       </c>
       <c r="AI3">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.05</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM3">
+        <v>0.88</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ3">
         <v>-0.32</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM3">
-        <v>-1.02</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1893,7 +1812,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1907,20 +1826,20 @@
       <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="H4">
-        <v>0.1</v>
+      <c r="H4" t="s">
+        <v>3</v>
       </c>
       <c r="I4" t="s">
         <v>3</v>
       </c>
       <c r="J4">
-        <v>-0.13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>3</v>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="K4">
+        <v>-0.32</v>
+      </c>
+      <c r="L4">
+        <v>-1.02</v>
       </c>
       <c r="M4" t="s">
         <v>3</v>
@@ -1961,8 +1880,8 @@
       <c r="Y4" t="s">
         <v>3</v>
       </c>
-      <c r="Z4">
-        <v>0.1</v>
+      <c r="Z4" t="s">
+        <v>3</v>
       </c>
       <c r="AA4" t="s">
         <v>3</v>
@@ -1980,7 +1899,7 @@
         <v>3</v>
       </c>
       <c r="AF4">
-        <v>-0.13</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="AG4" t="s">
         <v>3</v>
@@ -1988,8 +1907,8 @@
       <c r="AH4" t="s">
         <v>3</v>
       </c>
-      <c r="AI4" t="s">
-        <v>3</v>
+      <c r="AI4">
+        <v>-0.32</v>
       </c>
       <c r="AJ4" t="s">
         <v>3</v>
@@ -2000,8 +1919,8 @@
       <c r="AL4" t="s">
         <v>3</v>
       </c>
-      <c r="AM4" t="s">
-        <v>3</v>
+      <c r="AM4">
+        <v>-1.02</v>
       </c>
       <c r="AN4" t="s">
         <v>3</v>
@@ -2024,7 +1943,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -2149,13 +2068,13 @@
     </row>
     <row r="6" spans="1:43">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -2169,20 +2088,20 @@
       <c r="G6" t="s">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
-        <v>3</v>
+      <c r="H6">
+        <v>0.1</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
-        <v>3</v>
+      <c r="J6">
+        <v>-0.13</v>
       </c>
       <c r="K6" t="s">
         <v>3</v>
       </c>
-      <c r="L6">
-        <v>0.17</v>
+      <c r="L6" t="s">
+        <v>3</v>
       </c>
       <c r="M6" t="s">
         <v>3</v>
@@ -2223,8 +2142,8 @@
       <c r="Y6" t="s">
         <v>3</v>
       </c>
-      <c r="Z6" t="s">
-        <v>3</v>
+      <c r="Z6">
+        <v>0.1</v>
       </c>
       <c r="AA6" t="s">
         <v>3</v>
@@ -2241,8 +2160,8 @@
       <c r="AE6" t="s">
         <v>3</v>
       </c>
-      <c r="AF6" t="s">
-        <v>3</v>
+      <c r="AF6">
+        <v>-0.13</v>
       </c>
       <c r="AG6" t="s">
         <v>3</v>
@@ -2262,8 +2181,8 @@
       <c r="AL6" t="s">
         <v>3</v>
       </c>
-      <c r="AM6">
-        <v>0.17</v>
+      <c r="AM6" t="s">
+        <v>3</v>
       </c>
       <c r="AN6" t="s">
         <v>3</v>
@@ -2286,40 +2205,40 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="E7">
-        <v>-0.45</v>
-      </c>
-      <c r="F7">
-        <v>-0.56000000000000005</v>
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
       </c>
-      <c r="H7">
-        <v>-0.52</v>
-      </c>
-      <c r="I7">
-        <v>-0.34</v>
-      </c>
-      <c r="J7">
-        <v>-0.23</v>
-      </c>
-      <c r="K7">
-        <v>-0.21</v>
-      </c>
-      <c r="L7" t="s">
-        <v>3</v>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>0.17</v>
       </c>
       <c r="M7" t="s">
         <v>3</v>
       </c>
-      <c r="N7">
-        <v>-7.0000000000000007E-2</v>
+      <c r="N7" t="s">
+        <v>3</v>
       </c>
       <c r="O7" t="s">
         <v>3</v>
@@ -2327,8 +2246,8 @@
       <c r="P7" t="s">
         <v>3</v>
       </c>
-      <c r="Q7">
-        <v>-0.45</v>
+      <c r="Q7" t="s">
+        <v>3</v>
       </c>
       <c r="R7" t="s">
         <v>3</v>
@@ -2336,8 +2255,8 @@
       <c r="S7" t="s">
         <v>3</v>
       </c>
-      <c r="T7">
-        <v>-0.56000000000000005</v>
+      <c r="T7" t="s">
+        <v>3</v>
       </c>
       <c r="U7" t="s">
         <v>3</v>
@@ -2354,8 +2273,8 @@
       <c r="Y7" t="s">
         <v>3</v>
       </c>
-      <c r="Z7">
-        <v>-0.52</v>
+      <c r="Z7" t="s">
+        <v>3</v>
       </c>
       <c r="AA7" t="s">
         <v>3</v>
@@ -2363,8 +2282,8 @@
       <c r="AB7" t="s">
         <v>3</v>
       </c>
-      <c r="AC7">
-        <v>-0.34</v>
+      <c r="AC7" t="s">
+        <v>3</v>
       </c>
       <c r="AD7" t="s">
         <v>3</v>
@@ -2372,8 +2291,8 @@
       <c r="AE7" t="s">
         <v>3</v>
       </c>
-      <c r="AF7">
-        <v>-0.23</v>
+      <c r="AF7" t="s">
+        <v>3</v>
       </c>
       <c r="AG7" t="s">
         <v>3</v>
@@ -2381,8 +2300,8 @@
       <c r="AH7" t="s">
         <v>3</v>
       </c>
-      <c r="AI7">
-        <v>-0.21</v>
+      <c r="AI7" t="s">
+        <v>3</v>
       </c>
       <c r="AJ7" t="s">
         <v>3</v>
@@ -2393,8 +2312,8 @@
       <c r="AL7" t="s">
         <v>3</v>
       </c>
-      <c r="AM7" t="s">
-        <v>3</v>
+      <c r="AM7">
+        <v>0.17</v>
       </c>
       <c r="AN7" t="s">
         <v>3</v>
@@ -2411,133 +2330,133 @@
     </row>
     <row r="8" spans="1:43">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>-0.04</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="E8">
-        <v>-0.08</v>
+        <v>-0.45</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>-0.24</v>
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>-0.02</v>
+        <v>-0.52</v>
       </c>
       <c r="I8">
+        <v>-0.34</v>
+      </c>
+      <c r="J8">
         <v>-0.23</v>
       </c>
-      <c r="J8">
-        <v>-0.11</v>
-      </c>
       <c r="K8">
-        <v>-0.15</v>
-      </c>
-      <c r="L8">
-        <v>0.2</v>
-      </c>
-      <c r="M8">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>-0.2</v>
-      </c>
-      <c r="O8">
-        <v>0.11</v>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
       </c>
       <c r="P8" t="s">
         <v>3</v>
       </c>
       <c r="Q8">
-        <v>-0.16</v>
-      </c>
-      <c r="R8">
-        <v>0.24</v>
-      </c>
-      <c r="S8">
-        <v>-0.08</v>
+        <v>-0.45</v>
+      </c>
+      <c r="R8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3</v>
       </c>
       <c r="T8">
-        <v>-0.13</v>
-      </c>
-      <c r="U8">
-        <v>0.2</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>-0.24</v>
-      </c>
-      <c r="X8">
-        <v>0.37</v>
-      </c>
-      <c r="Y8">
-        <v>-0.31</v>
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="U8" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>3</v>
       </c>
       <c r="Z8">
-        <v>-0.27</v>
-      </c>
-      <c r="AA8">
-        <v>-0.01</v>
-      </c>
-      <c r="AB8">
-        <v>-0.02</v>
+        <v>-0.52</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>3</v>
       </c>
       <c r="AC8">
+        <v>-0.34</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF8">
         <v>-0.23</v>
       </c>
-      <c r="AD8">
-        <v>0.02</v>
-      </c>
-      <c r="AE8">
-        <v>-0.26</v>
-      </c>
-      <c r="AF8">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="AG8">
-        <v>-0.04</v>
-      </c>
-      <c r="AH8">
-        <v>-0.11</v>
+      <c r="AG8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>3</v>
       </c>
       <c r="AI8">
-        <v>-0.15</v>
-      </c>
-      <c r="AJ8">
-        <v>-0.11</v>
-      </c>
-      <c r="AK8">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="AL8">
-        <v>-0.03</v>
-      </c>
-      <c r="AM8">
-        <v>0.23</v>
-      </c>
-      <c r="AN8">
-        <v>0.2</v>
-      </c>
-      <c r="AO8">
-        <v>0.24</v>
-      </c>
-      <c r="AP8">
-        <v>-0.13</v>
-      </c>
-      <c r="AQ8">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.21</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -2548,127 +2467,127 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>-0.04</v>
       </c>
       <c r="E9">
+        <v>-0.08</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-0.24</v>
+      </c>
+      <c r="H9">
+        <v>-0.02</v>
+      </c>
+      <c r="I9">
+        <v>-0.23</v>
+      </c>
+      <c r="J9">
+        <v>-0.11</v>
+      </c>
+      <c r="K9">
+        <v>-0.15</v>
+      </c>
+      <c r="L9">
+        <v>0.2</v>
+      </c>
+      <c r="M9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F9">
+      <c r="N9">
+        <v>-0.2</v>
+      </c>
+      <c r="O9">
+        <v>0.11</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>-0.16</v>
+      </c>
+      <c r="R9">
+        <v>0.24</v>
+      </c>
+      <c r="S9">
         <v>-0.08</v>
       </c>
-      <c r="G9">
-        <v>0.08</v>
-      </c>
-      <c r="H9">
-        <v>0.06</v>
-      </c>
-      <c r="I9">
-        <v>0.38</v>
-      </c>
-      <c r="J9">
-        <v>0.05</v>
-      </c>
-      <c r="K9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>-0.17</v>
-      </c>
-      <c r="M9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9">
+      <c r="T9">
+        <v>-0.13</v>
+      </c>
+      <c r="U9">
+        <v>0.2</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>-0.24</v>
+      </c>
+      <c r="X9">
+        <v>0.37</v>
+      </c>
+      <c r="Y9">
+        <v>-0.31</v>
+      </c>
+      <c r="Z9">
+        <v>-0.27</v>
+      </c>
+      <c r="AA9">
+        <v>-0.01</v>
+      </c>
+      <c r="AB9">
+        <v>-0.02</v>
+      </c>
+      <c r="AC9">
+        <v>-0.23</v>
+      </c>
+      <c r="AD9">
+        <v>0.02</v>
+      </c>
+      <c r="AE9">
+        <v>-0.26</v>
+      </c>
+      <c r="AF9">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="AG9">
+        <v>-0.04</v>
+      </c>
+      <c r="AH9">
+        <v>-0.11</v>
+      </c>
+      <c r="AI9">
+        <v>-0.15</v>
+      </c>
+      <c r="AJ9">
+        <v>-0.11</v>
+      </c>
+      <c r="AK9">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="AL9">
+        <v>-0.03</v>
+      </c>
+      <c r="AM9">
+        <v>0.23</v>
+      </c>
+      <c r="AN9">
+        <v>0.2</v>
+      </c>
+      <c r="AO9">
+        <v>0.24</v>
+      </c>
+      <c r="AP9">
+        <v>-0.13</v>
+      </c>
+      <c r="AQ9">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9">
-        <v>-0.08</v>
-      </c>
-      <c r="U9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V9" t="s">
-        <v>3</v>
-      </c>
-      <c r="W9">
-        <v>0.08</v>
-      </c>
-      <c r="X9">
-        <v>0.26</v>
-      </c>
-      <c r="Y9">
-        <v>-0.21</v>
-      </c>
-      <c r="Z9">
-        <v>0.06</v>
-      </c>
-      <c r="AA9">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="AB9">
-        <v>0.09</v>
-      </c>
-      <c r="AC9">
-        <v>0.38</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF9">
-        <v>0.05</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM9">
-        <v>-0.17</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -2679,127 +2598,127 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>-0.09</v>
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>-0.25</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F10">
-        <v>0.11</v>
+        <v>-0.08</v>
       </c>
       <c r="G10">
-        <v>-0.05</v>
+        <v>0.08</v>
       </c>
       <c r="H10">
-        <v>-0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I10">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="J10">
-        <v>-0.16</v>
-      </c>
-      <c r="K10">
-        <v>-0.05</v>
+        <v>0.05</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>-0.2</v>
-      </c>
-      <c r="M10">
-        <v>-0.16</v>
-      </c>
-      <c r="N10">
-        <v>-0.02</v>
-      </c>
-      <c r="O10">
-        <v>-0.15</v>
+        <v>-0.17</v>
+      </c>
+      <c r="M10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>3</v>
       </c>
       <c r="P10" t="s">
         <v>3</v>
       </c>
       <c r="Q10">
-        <v>-0.05</v>
-      </c>
-      <c r="R10">
-        <v>-0.44</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>3</v>
       </c>
       <c r="S10" t="s">
         <v>3</v>
       </c>
       <c r="T10">
-        <v>0.11</v>
-      </c>
-      <c r="U10">
+        <v>-0.08</v>
+      </c>
+      <c r="U10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>0.08</v>
+      </c>
+      <c r="X10">
+        <v>0.26</v>
+      </c>
+      <c r="Y10">
         <v>-0.21</v>
       </c>
-      <c r="V10">
-        <v>0.42</v>
-      </c>
-      <c r="W10">
-        <v>0.25</v>
-      </c>
-      <c r="X10">
-        <v>-0.05</v>
-      </c>
-      <c r="Y10">
-        <v>-0.91</v>
-      </c>
       <c r="Z10">
-        <v>-0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AA10">
-        <v>-0.12</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AB10">
-        <v>-0.19</v>
+        <v>0.09</v>
       </c>
       <c r="AC10">
-        <v>0.04</v>
-      </c>
-      <c r="AD10">
-        <v>-0.13</v>
-      </c>
-      <c r="AE10">
-        <v>0.24</v>
+        <v>0.38</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>3</v>
       </c>
       <c r="AF10">
-        <v>-0.05</v>
-      </c>
-      <c r="AG10">
-        <v>-0.27</v>
+        <v>0.05</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>3</v>
       </c>
       <c r="AH10" t="s">
         <v>3</v>
       </c>
-      <c r="AI10">
-        <v>-0.05</v>
-      </c>
-      <c r="AJ10">
-        <v>-0.04</v>
-      </c>
-      <c r="AK10">
-        <v>-0.26</v>
-      </c>
-      <c r="AL10">
-        <v>-0.21</v>
+      <c r="AI10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>3</v>
       </c>
       <c r="AM10">
-        <v>0.09</v>
-      </c>
-      <c r="AN10">
-        <v>-0.2</v>
-      </c>
-      <c r="AO10">
-        <v>-0.06</v>
-      </c>
-      <c r="AP10">
-        <v>-0.16</v>
-      </c>
-      <c r="AQ10">
-        <v>-0.23</v>
+        <v>-0.17</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2810,127 +2729,127 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>-0.09</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
+        <v>-0.25</v>
       </c>
       <c r="F11">
+        <v>0.11</v>
+      </c>
+      <c r="G11">
+        <v>-0.05</v>
+      </c>
+      <c r="H11">
+        <v>-0.12</v>
+      </c>
+      <c r="I11">
+        <v>0.04</v>
+      </c>
+      <c r="J11">
+        <v>-0.16</v>
+      </c>
+      <c r="K11">
+        <v>-0.05</v>
+      </c>
+      <c r="L11">
+        <v>-0.2</v>
+      </c>
+      <c r="M11">
+        <v>-0.16</v>
+      </c>
+      <c r="N11">
+        <v>-0.02</v>
+      </c>
+      <c r="O11">
+        <v>-0.15</v>
+      </c>
+      <c r="P11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>-0.05</v>
+      </c>
+      <c r="R11">
+        <v>-0.44</v>
+      </c>
+      <c r="S11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>0.11</v>
+      </c>
+      <c r="U11">
+        <v>-0.21</v>
+      </c>
+      <c r="V11">
+        <v>0.42</v>
+      </c>
+      <c r="W11">
+        <v>0.25</v>
+      </c>
+      <c r="X11">
+        <v>-0.05</v>
+      </c>
+      <c r="Y11">
+        <v>-0.91</v>
+      </c>
+      <c r="Z11">
+        <v>-0.02</v>
+      </c>
+      <c r="AA11">
+        <v>-0.12</v>
+      </c>
+      <c r="AB11">
+        <v>-0.19</v>
+      </c>
+      <c r="AC11">
+        <v>0.04</v>
+      </c>
+      <c r="AD11">
+        <v>-0.13</v>
+      </c>
+      <c r="AE11">
+        <v>0.24</v>
+      </c>
+      <c r="AF11">
+        <v>-0.05</v>
+      </c>
+      <c r="AG11">
+        <v>-0.27</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI11">
+        <v>-0.05</v>
+      </c>
+      <c r="AJ11">
+        <v>-0.04</v>
+      </c>
+      <c r="AK11">
+        <v>-0.26</v>
+      </c>
+      <c r="AL11">
+        <v>-0.21</v>
+      </c>
+      <c r="AM11">
         <v>0.09</v>
       </c>
-      <c r="G11">
-        <v>0.06</v>
-      </c>
-      <c r="H11">
-        <v>-0.04</v>
-      </c>
-      <c r="I11">
-        <v>0.01</v>
-      </c>
-      <c r="J11">
-        <v>-0.04</v>
-      </c>
-      <c r="K11">
-        <v>-0.09</v>
-      </c>
-      <c r="L11">
-        <v>-0.12</v>
-      </c>
-      <c r="M11">
-        <v>-0.04</v>
-      </c>
-      <c r="N11">
-        <v>-0.04</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>1.29</v>
-      </c>
-      <c r="Q11">
-        <v>0.05</v>
-      </c>
-      <c r="R11">
-        <v>-0.03</v>
-      </c>
-      <c r="S11">
-        <v>0.33</v>
-      </c>
-      <c r="T11">
-        <v>0.09</v>
-      </c>
-      <c r="U11">
-        <v>0.01</v>
-      </c>
-      <c r="V11">
-        <v>0.62</v>
-      </c>
-      <c r="W11">
-        <v>0.06</v>
-      </c>
-      <c r="X11">
-        <v>-0.01</v>
-      </c>
-      <c r="Y11">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Z11">
-        <v>-0.04</v>
-      </c>
-      <c r="AA11">
-        <v>0.04</v>
-      </c>
-      <c r="AB11">
-        <v>-0.1</v>
-      </c>
-      <c r="AC11">
-        <v>0.02</v>
-      </c>
-      <c r="AD11">
-        <v>0.01</v>
-      </c>
-      <c r="AE11">
-        <v>-0.03</v>
-      </c>
-      <c r="AF11">
-        <v>0.02</v>
-      </c>
-      <c r="AG11">
+      <c r="AN11">
+        <v>-0.2</v>
+      </c>
+      <c r="AO11">
         <v>-0.06</v>
       </c>
-      <c r="AH11">
-        <v>-0.04</v>
-      </c>
-      <c r="AI11">
-        <v>-0.02</v>
-      </c>
-      <c r="AJ11">
-        <v>-0.09</v>
-      </c>
-      <c r="AK11">
-        <v>-0.21</v>
-      </c>
-      <c r="AL11">
-        <v>-0.41</v>
-      </c>
-      <c r="AM11">
-        <v>0.03</v>
-      </c>
-      <c r="AN11">
-        <v>-0.12</v>
-      </c>
-      <c r="AO11">
-        <v>-0.04</v>
-      </c>
       <c r="AP11">
-        <v>0.03</v>
+        <v>-0.16</v>
       </c>
       <c r="AQ11">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2941,141 +2860,141 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>-0.33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.05</v>
+      </c>
+      <c r="F12">
+        <v>0.09</v>
+      </c>
+      <c r="G12">
+        <v>0.06</v>
+      </c>
+      <c r="H12">
+        <v>-0.04</v>
+      </c>
+      <c r="I12">
+        <v>0.01</v>
       </c>
       <c r="J12">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="K12">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="L12" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" t="s">
-        <v>3</v>
+        <v>-0.09</v>
+      </c>
+      <c r="L12">
+        <v>-0.12</v>
+      </c>
+      <c r="M12">
+        <v>-0.04</v>
       </c>
       <c r="N12">
-        <v>-0.33</v>
-      </c>
-      <c r="O12" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" t="s">
-        <v>3</v>
-      </c>
-      <c r="U12" t="s">
-        <v>3</v>
-      </c>
-      <c r="V12" t="s">
-        <v>3</v>
-      </c>
-      <c r="W12" t="s">
-        <v>3</v>
-      </c>
-      <c r="X12" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>3</v>
+        <v>-0.04</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1.29</v>
+      </c>
+      <c r="Q12">
+        <v>0.05</v>
+      </c>
+      <c r="R12">
+        <v>-0.03</v>
+      </c>
+      <c r="S12">
+        <v>0.33</v>
+      </c>
+      <c r="T12">
+        <v>0.09</v>
+      </c>
+      <c r="U12">
+        <v>0.01</v>
+      </c>
+      <c r="V12">
+        <v>0.62</v>
+      </c>
+      <c r="W12">
+        <v>0.06</v>
+      </c>
+      <c r="X12">
+        <v>-0.01</v>
+      </c>
+      <c r="Y12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Z12">
+        <v>-0.04</v>
+      </c>
+      <c r="AA12">
+        <v>0.04</v>
+      </c>
+      <c r="AB12">
+        <v>-0.1</v>
+      </c>
+      <c r="AC12">
+        <v>0.02</v>
+      </c>
+      <c r="AD12">
+        <v>0.01</v>
+      </c>
+      <c r="AE12">
+        <v>-0.03</v>
       </c>
       <c r="AF12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>3</v>
+        <v>0.02</v>
+      </c>
+      <c r="AG12">
+        <v>-0.06</v>
+      </c>
+      <c r="AH12">
+        <v>-0.04</v>
       </c>
       <c r="AI12">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>3</v>
+        <v>-0.02</v>
+      </c>
+      <c r="AJ12">
+        <v>-0.09</v>
+      </c>
+      <c r="AK12">
+        <v>-0.21</v>
+      </c>
+      <c r="AL12">
+        <v>-0.41</v>
+      </c>
+      <c r="AM12">
+        <v>0.03</v>
+      </c>
+      <c r="AN12">
+        <v>-0.12</v>
+      </c>
+      <c r="AO12">
+        <v>-0.04</v>
+      </c>
+      <c r="AP12">
+        <v>0.03</v>
+      </c>
+      <c r="AQ12">
+        <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="13" spans="1:43">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>-0.33</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
@@ -3092,20 +3011,20 @@
       <c r="I13" t="s">
         <v>3</v>
       </c>
-      <c r="J13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>-0.7</v>
+      <c r="J13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K13">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3</v>
       </c>
       <c r="M13" t="s">
         <v>3</v>
       </c>
-      <c r="N13" t="s">
-        <v>3</v>
+      <c r="N13">
+        <v>-0.33</v>
       </c>
       <c r="O13" t="s">
         <v>3</v>
@@ -3158,8 +3077,8 @@
       <c r="AE13" t="s">
         <v>3</v>
       </c>
-      <c r="AF13" t="s">
-        <v>3</v>
+      <c r="AF13">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AG13" t="s">
         <v>3</v>
@@ -3167,8 +3086,8 @@
       <c r="AH13" t="s">
         <v>3</v>
       </c>
-      <c r="AI13" t="s">
-        <v>3</v>
+      <c r="AI13">
+        <v>-0.14000000000000001</v>
       </c>
       <c r="AJ13" t="s">
         <v>3</v>
@@ -3179,8 +3098,8 @@
       <c r="AL13" t="s">
         <v>3</v>
       </c>
-      <c r="AM13">
-        <v>-0.7</v>
+      <c r="AM13" t="s">
+        <v>3</v>
       </c>
       <c r="AN13" t="s">
         <v>3</v>
@@ -3197,46 +3116,46 @@
     </row>
     <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <v>-0.86</v>
-      </c>
-      <c r="E14">
-        <v>-0.01</v>
-      </c>
-      <c r="F14">
-        <v>-0.03</v>
-      </c>
-      <c r="G14">
-        <v>-0.16</v>
-      </c>
-      <c r="H14">
-        <v>-0.08</v>
-      </c>
-      <c r="I14">
-        <v>-0.15</v>
-      </c>
-      <c r="J14">
-        <v>0.11</v>
-      </c>
-      <c r="K14">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="L14" t="s">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>-0.7</v>
       </c>
       <c r="M14" t="s">
         <v>3</v>
       </c>
-      <c r="N14">
-        <v>-0.86</v>
+      <c r="N14" t="s">
+        <v>3</v>
       </c>
       <c r="O14" t="s">
         <v>3</v>
@@ -3244,8 +3163,8 @@
       <c r="P14" t="s">
         <v>3</v>
       </c>
-      <c r="Q14">
-        <v>-0.01</v>
+      <c r="Q14" t="s">
+        <v>3</v>
       </c>
       <c r="R14" t="s">
         <v>3</v>
@@ -3253,8 +3172,8 @@
       <c r="S14" t="s">
         <v>3</v>
       </c>
-      <c r="T14">
-        <v>-0.03</v>
+      <c r="T14" t="s">
+        <v>3</v>
       </c>
       <c r="U14" t="s">
         <v>3</v>
@@ -3262,8 +3181,8 @@
       <c r="V14" t="s">
         <v>3</v>
       </c>
-      <c r="W14">
-        <v>-0.16</v>
+      <c r="W14" t="s">
+        <v>3</v>
       </c>
       <c r="X14" t="s">
         <v>3</v>
@@ -3271,8 +3190,8 @@
       <c r="Y14" t="s">
         <v>3</v>
       </c>
-      <c r="Z14">
-        <v>-0.08</v>
+      <c r="Z14" t="s">
+        <v>3</v>
       </c>
       <c r="AA14" t="s">
         <v>3</v>
@@ -3280,8 +3199,8 @@
       <c r="AB14" t="s">
         <v>3</v>
       </c>
-      <c r="AC14">
-        <v>-0.15</v>
+      <c r="AC14" t="s">
+        <v>3</v>
       </c>
       <c r="AD14" t="s">
         <v>3</v>
@@ -3289,8 +3208,8 @@
       <c r="AE14" t="s">
         <v>3</v>
       </c>
-      <c r="AF14">
-        <v>0.11</v>
+      <c r="AF14" t="s">
+        <v>3</v>
       </c>
       <c r="AG14" t="s">
         <v>3</v>
@@ -3298,8 +3217,8 @@
       <c r="AH14" t="s">
         <v>3</v>
       </c>
-      <c r="AI14">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AI14" t="s">
+        <v>3</v>
       </c>
       <c r="AJ14" t="s">
         <v>3</v>
@@ -3310,8 +3229,8 @@
       <c r="AL14" t="s">
         <v>3</v>
       </c>
-      <c r="AM14" t="s">
-        <v>3</v>
+      <c r="AM14">
+        <v>-0.7</v>
       </c>
       <c r="AN14" t="s">
         <v>3</v>
@@ -3334,76 +3253,76 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>-0.86</v>
+      </c>
+      <c r="E15">
+        <v>-0.01</v>
+      </c>
+      <c r="F15">
+        <v>-0.03</v>
+      </c>
+      <c r="G15">
+        <v>-0.16</v>
+      </c>
+      <c r="H15">
+        <v>-0.08</v>
+      </c>
+      <c r="I15">
+        <v>-0.15</v>
       </c>
       <c r="J15">
+        <v>0.11</v>
+      </c>
+      <c r="K15">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>-0.86</v>
+      </c>
+      <c r="O15" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>-0.01</v>
+      </c>
+      <c r="R15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>-0.03</v>
+      </c>
+      <c r="U15" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15">
         <v>-0.16</v>
       </c>
-      <c r="K15">
-        <v>-0.1</v>
-      </c>
-      <c r="L15" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>3</v>
-      </c>
-      <c r="R15" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" t="s">
-        <v>3</v>
-      </c>
-      <c r="T15" t="s">
-        <v>3</v>
-      </c>
-      <c r="U15" t="s">
-        <v>3</v>
-      </c>
-      <c r="V15" t="s">
-        <v>3</v>
-      </c>
-      <c r="W15" t="s">
-        <v>3</v>
-      </c>
       <c r="X15" t="s">
         <v>3</v>
       </c>
       <c r="Y15" t="s">
         <v>3</v>
       </c>
-      <c r="Z15" t="s">
-        <v>3</v>
+      <c r="Z15">
+        <v>-0.08</v>
       </c>
       <c r="AA15" t="s">
         <v>3</v>
@@ -3411,8 +3330,8 @@
       <c r="AB15" t="s">
         <v>3</v>
       </c>
-      <c r="AC15" t="s">
-        <v>3</v>
+      <c r="AC15">
+        <v>-0.15</v>
       </c>
       <c r="AD15" t="s">
         <v>3</v>
@@ -3421,7 +3340,7 @@
         <v>3</v>
       </c>
       <c r="AF15">
-        <v>-0.16</v>
+        <v>0.11</v>
       </c>
       <c r="AG15" t="s">
         <v>3</v>
@@ -3430,7 +3349,7 @@
         <v>3</v>
       </c>
       <c r="AI15">
-        <v>-0.1</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AJ15" t="s">
         <v>3</v>
@@ -3465,31 +3384,31 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16">
-        <v>-0.61</v>
-      </c>
-      <c r="E16">
-        <v>-0.2</v>
-      </c>
-      <c r="F16">
-        <v>-0.25</v>
-      </c>
-      <c r="G16">
-        <v>-0.39</v>
-      </c>
-      <c r="H16">
-        <v>0.27</v>
-      </c>
-      <c r="I16">
-        <v>0.16</v>
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>0.42</v>
+        <v>-0.16</v>
       </c>
       <c r="K16">
-        <v>-0.32</v>
+        <v>-0.1</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>
@@ -3497,17 +3416,17 @@
       <c r="M16" t="s">
         <v>3</v>
       </c>
-      <c r="N16">
-        <v>-0.56000000000000005</v>
+      <c r="N16" t="s">
+        <v>3</v>
       </c>
       <c r="O16" t="s">
         <v>3</v>
       </c>
-      <c r="P16">
-        <v>-0.67</v>
-      </c>
-      <c r="Q16">
-        <v>-0.2</v>
+      <c r="P16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>3</v>
       </c>
       <c r="R16" t="s">
         <v>3</v>
@@ -3515,14 +3434,14 @@
       <c r="S16" t="s">
         <v>3</v>
       </c>
-      <c r="T16">
-        <v>-0.3</v>
+      <c r="T16" t="s">
+        <v>3</v>
       </c>
       <c r="U16" t="s">
         <v>3</v>
       </c>
-      <c r="V16">
-        <v>-0.2</v>
+      <c r="V16" t="s">
+        <v>3</v>
       </c>
       <c r="W16" t="s">
         <v>3</v>
@@ -3530,29 +3449,29 @@
       <c r="X16" t="s">
         <v>3</v>
       </c>
-      <c r="Y16">
-        <v>-0.39</v>
-      </c>
-      <c r="Z16">
-        <v>0.59</v>
+      <c r="Y16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>3</v>
       </c>
       <c r="AA16" t="s">
         <v>3</v>
       </c>
-      <c r="AB16">
-        <v>-0.04</v>
-      </c>
-      <c r="AC16">
-        <v>-0.55000000000000004</v>
+      <c r="AB16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>3</v>
       </c>
       <c r="AD16" t="s">
         <v>3</v>
       </c>
-      <c r="AE16">
-        <v>0.86</v>
+      <c r="AE16" t="s">
+        <v>3</v>
       </c>
       <c r="AF16">
-        <v>0.42</v>
+        <v>-0.16</v>
       </c>
       <c r="AG16" t="s">
         <v>3</v>
@@ -3561,7 +3480,7 @@
         <v>3</v>
       </c>
       <c r="AI16">
-        <v>-0.32</v>
+        <v>-0.1</v>
       </c>
       <c r="AJ16" t="s">
         <v>3</v>
@@ -3596,31 +3515,31 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" t="s">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>-0.61</v>
+      </c>
+      <c r="E17">
+        <v>-0.2</v>
+      </c>
+      <c r="F17">
+        <v>-0.25</v>
+      </c>
+      <c r="G17">
+        <v>-0.39</v>
+      </c>
+      <c r="H17">
+        <v>0.27</v>
+      </c>
+      <c r="I17">
+        <v>0.16</v>
+      </c>
+      <c r="J17">
+        <v>0.42</v>
+      </c>
+      <c r="K17">
+        <v>-0.32</v>
       </c>
       <c r="L17" t="s">
         <v>3</v>
@@ -3628,17 +3547,17 @@
       <c r="M17" t="s">
         <v>3</v>
       </c>
-      <c r="N17" t="s">
-        <v>3</v>
+      <c r="N17">
+        <v>-0.56000000000000005</v>
       </c>
       <c r="O17" t="s">
         <v>3</v>
       </c>
-      <c r="P17" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>3</v>
+      <c r="P17">
+        <v>-0.67</v>
+      </c>
+      <c r="Q17">
+        <v>-0.2</v>
       </c>
       <c r="R17" t="s">
         <v>3</v>
@@ -3646,14 +3565,14 @@
       <c r="S17" t="s">
         <v>3</v>
       </c>
-      <c r="T17" t="s">
-        <v>3</v>
+      <c r="T17">
+        <v>-0.3</v>
       </c>
       <c r="U17" t="s">
         <v>3</v>
       </c>
-      <c r="V17" t="s">
-        <v>3</v>
+      <c r="V17">
+        <v>-0.2</v>
       </c>
       <c r="W17" t="s">
         <v>3</v>
@@ -3661,29 +3580,29 @@
       <c r="X17" t="s">
         <v>3</v>
       </c>
-      <c r="Y17" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>3</v>
+      <c r="Y17">
+        <v>-0.39</v>
+      </c>
+      <c r="Z17">
+        <v>0.59</v>
       </c>
       <c r="AA17" t="s">
         <v>3</v>
       </c>
-      <c r="AB17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>3</v>
+      <c r="AB17">
+        <v>-0.04</v>
+      </c>
+      <c r="AC17">
+        <v>-0.55000000000000004</v>
       </c>
       <c r="AD17" t="s">
         <v>3</v>
       </c>
-      <c r="AE17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>3</v>
+      <c r="AE17">
+        <v>0.86</v>
+      </c>
+      <c r="AF17">
+        <v>0.42</v>
       </c>
       <c r="AG17" t="s">
         <v>3</v>
@@ -3691,8 +3610,8 @@
       <c r="AH17" t="s">
         <v>3</v>
       </c>
-      <c r="AI17" t="s">
-        <v>3</v>
+      <c r="AI17">
+        <v>-0.32</v>
       </c>
       <c r="AJ17" t="s">
         <v>3</v>
@@ -3721,46 +3640,46 @@
     </row>
     <row r="18" spans="1:43">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18">
-        <v>-0.2</v>
-      </c>
-      <c r="E18">
-        <v>-0.25</v>
-      </c>
-      <c r="F18">
-        <v>0.33</v>
-      </c>
-      <c r="G18">
-        <v>0.11</v>
-      </c>
-      <c r="H18">
-        <v>0.03</v>
-      </c>
-      <c r="I18">
-        <v>-0.2</v>
-      </c>
-      <c r="J18">
-        <v>-0.02</v>
-      </c>
-      <c r="K18">
-        <v>-0.49</v>
-      </c>
-      <c r="L18">
-        <v>-0.16</v>
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
       </c>
       <c r="M18" t="s">
         <v>3</v>
       </c>
-      <c r="N18">
-        <v>-0.2</v>
+      <c r="N18" t="s">
+        <v>3</v>
       </c>
       <c r="O18" t="s">
         <v>3</v>
@@ -3768,17 +3687,17 @@
       <c r="P18" t="s">
         <v>3</v>
       </c>
-      <c r="Q18">
-        <v>-0.03</v>
-      </c>
-      <c r="R18">
-        <v>-0.46</v>
+      <c r="Q18" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s">
+        <v>3</v>
       </c>
       <c r="S18" t="s">
         <v>3</v>
       </c>
-      <c r="T18">
-        <v>0.33</v>
+      <c r="T18" t="s">
+        <v>3</v>
       </c>
       <c r="U18" t="s">
         <v>3</v>
@@ -3786,8 +3705,8 @@
       <c r="V18" t="s">
         <v>3</v>
       </c>
-      <c r="W18">
-        <v>0.11</v>
+      <c r="W18" t="s">
+        <v>3</v>
       </c>
       <c r="X18" t="s">
         <v>3</v>
@@ -3795,8 +3714,8 @@
       <c r="Y18" t="s">
         <v>3</v>
       </c>
-      <c r="Z18">
-        <v>0.03</v>
+      <c r="Z18" t="s">
+        <v>3</v>
       </c>
       <c r="AA18" t="s">
         <v>3</v>
@@ -3804,8 +3723,8 @@
       <c r="AB18" t="s">
         <v>3</v>
       </c>
-      <c r="AC18">
-        <v>-0.2</v>
+      <c r="AC18" t="s">
+        <v>3</v>
       </c>
       <c r="AD18" t="s">
         <v>3</v>
@@ -3813,17 +3732,17 @@
       <c r="AE18" t="s">
         <v>3</v>
       </c>
-      <c r="AF18">
-        <v>-0.3</v>
-      </c>
-      <c r="AG18">
-        <v>0.26</v>
+      <c r="AF18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>3</v>
       </c>
       <c r="AH18" t="s">
         <v>3</v>
       </c>
-      <c r="AI18">
-        <v>-0.49</v>
+      <c r="AI18" t="s">
+        <v>3</v>
       </c>
       <c r="AJ18" t="s">
         <v>3</v>
@@ -3834,11 +3753,11 @@
       <c r="AL18" t="s">
         <v>3</v>
       </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>-0.32</v>
+      <c r="AM18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>3</v>
       </c>
       <c r="AO18" t="s">
         <v>3</v>
@@ -3852,73 +3771,73 @@
     </row>
     <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="E19">
-        <v>-0.21</v>
+        <v>-0.25</v>
       </c>
       <c r="F19">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="G19">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="H19">
-        <v>-0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I19">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="J19">
-        <v>-0.25</v>
+        <v>-0.02</v>
       </c>
       <c r="K19">
-        <v>-0.66</v>
+        <v>-0.49</v>
       </c>
       <c r="L19">
-        <v>-0.01</v>
-      </c>
-      <c r="M19">
-        <v>0.15</v>
+        <v>-0.16</v>
+      </c>
+      <c r="M19" t="s">
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>0.05</v>
-      </c>
-      <c r="O19">
-        <v>-0.1</v>
-      </c>
-      <c r="P19">
-        <v>-0.36</v>
+        <v>-0.2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" t="s">
+        <v>3</v>
       </c>
       <c r="Q19">
-        <v>-0.12</v>
+        <v>-0.03</v>
       </c>
       <c r="R19">
-        <v>-0.28999999999999998</v>
+        <v>-0.46</v>
       </c>
       <c r="S19" t="s">
         <v>3</v>
       </c>
       <c r="T19">
-        <v>0.25</v>
-      </c>
-      <c r="U19">
-        <v>-0.02</v>
-      </c>
-      <c r="V19">
-        <v>0.06</v>
+        <v>0.33</v>
+      </c>
+      <c r="U19" t="s">
+        <v>3</v>
+      </c>
+      <c r="V19" t="s">
+        <v>3</v>
       </c>
       <c r="W19">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="X19" t="s">
         <v>3</v>
@@ -3927,52 +3846,52 @@
         <v>3</v>
       </c>
       <c r="Z19">
-        <v>-0.05</v>
-      </c>
-      <c r="AA19">
-        <v>-0.08</v>
+        <v>0.03</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>3</v>
       </c>
       <c r="AB19" t="s">
         <v>3</v>
       </c>
       <c r="AC19">
-        <v>-0.1</v>
-      </c>
-      <c r="AD19">
-        <v>0.06</v>
-      </c>
-      <c r="AE19">
-        <v>-0.21</v>
+        <v>-0.2</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>3</v>
       </c>
       <c r="AF19">
-        <v>-0.08</v>
+        <v>-0.3</v>
       </c>
       <c r="AG19">
-        <v>-0.43</v>
+        <v>0.26</v>
       </c>
       <c r="AH19" t="s">
         <v>3</v>
       </c>
       <c r="AI19">
-        <v>-0.52</v>
-      </c>
-      <c r="AJ19">
-        <v>-0.81</v>
+        <v>-0.49</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>3</v>
       </c>
       <c r="AK19" t="s">
         <v>3</v>
       </c>
-      <c r="AL19">
-        <v>-0.2</v>
+      <c r="AL19" t="s">
+        <v>3</v>
       </c>
       <c r="AM19">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN19">
-        <v>-0.01</v>
-      </c>
-      <c r="AO19">
-        <v>0.15</v>
+        <v>-0.32</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>3</v>
       </c>
       <c r="AP19" t="s">
         <v>3</v>
@@ -3989,127 +3908,127 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20">
-        <v>-0.01</v>
+        <v>-0.1</v>
       </c>
       <c r="E20">
-        <v>-0.03</v>
+        <v>-0.21</v>
       </c>
       <c r="F20">
         <v>0.06</v>
       </c>
       <c r="G20">
+        <v>0.24</v>
+      </c>
+      <c r="H20">
+        <v>-0.06</v>
+      </c>
+      <c r="I20">
+        <v>-0.1</v>
+      </c>
+      <c r="J20">
+        <v>-0.25</v>
+      </c>
+      <c r="K20">
+        <v>-0.66</v>
+      </c>
+      <c r="L20">
+        <v>-0.01</v>
+      </c>
+      <c r="M20">
+        <v>0.15</v>
+      </c>
+      <c r="N20">
+        <v>0.05</v>
+      </c>
+      <c r="O20">
+        <v>-0.1</v>
+      </c>
+      <c r="P20">
+        <v>-0.36</v>
+      </c>
+      <c r="Q20">
+        <v>-0.12</v>
+      </c>
+      <c r="R20">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="S20" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <v>0.25</v>
+      </c>
+      <c r="U20">
         <v>-0.02</v>
       </c>
-      <c r="H20">
+      <c r="V20">
+        <v>0.06</v>
+      </c>
+      <c r="W20">
+        <v>0.24</v>
+      </c>
+      <c r="X20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z20">
+        <v>-0.05</v>
+      </c>
+      <c r="AA20">
+        <v>-0.08</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC20">
+        <v>-0.1</v>
+      </c>
+      <c r="AD20">
+        <v>0.06</v>
+      </c>
+      <c r="AE20">
         <v>-0.21</v>
       </c>
-      <c r="I20">
-        <v>-0.27</v>
-      </c>
-      <c r="J20">
-        <v>-0.36</v>
-      </c>
-      <c r="K20">
-        <v>-0.67</v>
-      </c>
-      <c r="L20">
-        <v>-0.03</v>
-      </c>
-      <c r="M20">
-        <v>-0.17</v>
-      </c>
-      <c r="N20">
-        <v>0.09</v>
-      </c>
-      <c r="O20">
+      <c r="AF20">
+        <v>-0.08</v>
+      </c>
+      <c r="AG20">
+        <v>-0.43</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI20">
+        <v>-0.52</v>
+      </c>
+      <c r="AJ20">
+        <v>-0.81</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL20">
+        <v>-0.2</v>
+      </c>
+      <c r="AM20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AN20">
         <v>-0.01</v>
       </c>
-      <c r="P20">
-        <v>-0.18</v>
-      </c>
-      <c r="Q20">
+      <c r="AO20">
         <v>0.15</v>
       </c>
-      <c r="R20">
-        <v>-0.03</v>
-      </c>
-      <c r="S20">
-        <v>-0.38</v>
-      </c>
-      <c r="T20">
-        <v>0.24</v>
-      </c>
-      <c r="U20">
-        <v>0.06</v>
-      </c>
-      <c r="V20">
-        <v>-0.38</v>
-      </c>
-      <c r="W20">
-        <v>0.22</v>
-      </c>
-      <c r="X20">
-        <v>-0.02</v>
-      </c>
-      <c r="Y20">
-        <v>-0.18</v>
-      </c>
-      <c r="Z20">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="AA20">
-        <v>-0.21</v>
-      </c>
-      <c r="AB20">
-        <v>-0.36</v>
-      </c>
-      <c r="AC20">
-        <v>-0.2</v>
-      </c>
-      <c r="AD20">
-        <v>-0.27</v>
-      </c>
-      <c r="AE20">
-        <v>-0.42</v>
-      </c>
-      <c r="AF20">
-        <v>-0.3</v>
-      </c>
-      <c r="AG20">
-        <v>-0.36</v>
-      </c>
-      <c r="AH20">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="AI20">
-        <v>-0.59</v>
-      </c>
-      <c r="AJ20">
-        <v>-0.71</v>
-      </c>
-      <c r="AK20">
-        <v>-0.67</v>
-      </c>
-      <c r="AL20">
-        <v>-0.26</v>
-      </c>
-      <c r="AM20">
-        <v>-0.03</v>
-      </c>
-      <c r="AN20">
-        <v>-0.03</v>
-      </c>
-      <c r="AO20">
-        <v>-0.21</v>
-      </c>
-      <c r="AP20">
-        <v>0.12</v>
-      </c>
-      <c r="AQ20">
-        <v>-0.17</v>
+      <c r="AP20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -4120,127 +4039,127 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>-0.19</v>
+        <v>-0.01</v>
       </c>
       <c r="E21">
+        <v>-0.03</v>
+      </c>
+      <c r="F21">
+        <v>0.06</v>
+      </c>
+      <c r="G21">
+        <v>-0.02</v>
+      </c>
+      <c r="H21">
+        <v>-0.21</v>
+      </c>
+      <c r="I21">
+        <v>-0.27</v>
+      </c>
+      <c r="J21">
+        <v>-0.36</v>
+      </c>
+      <c r="K21">
+        <v>-0.67</v>
+      </c>
+      <c r="L21">
+        <v>-0.03</v>
+      </c>
+      <c r="M21">
+        <v>-0.17</v>
+      </c>
+      <c r="N21">
+        <v>0.09</v>
+      </c>
+      <c r="O21">
+        <v>-0.01</v>
+      </c>
+      <c r="P21">
+        <v>-0.18</v>
+      </c>
+      <c r="Q21">
+        <v>0.15</v>
+      </c>
+      <c r="R21">
+        <v>-0.03</v>
+      </c>
+      <c r="S21">
+        <v>-0.38</v>
+      </c>
+      <c r="T21">
+        <v>0.24</v>
+      </c>
+      <c r="U21">
+        <v>0.06</v>
+      </c>
+      <c r="V21">
+        <v>-0.38</v>
+      </c>
+      <c r="W21">
+        <v>0.22</v>
+      </c>
+      <c r="X21">
+        <v>-0.02</v>
+      </c>
+      <c r="Y21">
+        <v>-0.18</v>
+      </c>
+      <c r="Z21">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="F21">
+      <c r="AA21">
+        <v>-0.21</v>
+      </c>
+      <c r="AB21">
+        <v>-0.36</v>
+      </c>
+      <c r="AC21">
+        <v>-0.2</v>
+      </c>
+      <c r="AD21">
+        <v>-0.27</v>
+      </c>
+      <c r="AE21">
+        <v>-0.42</v>
+      </c>
+      <c r="AF21">
+        <v>-0.3</v>
+      </c>
+      <c r="AG21">
+        <v>-0.36</v>
+      </c>
+      <c r="AH21">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="AI21">
+        <v>-0.59</v>
+      </c>
+      <c r="AJ21">
+        <v>-0.71</v>
+      </c>
+      <c r="AK21">
+        <v>-0.67</v>
+      </c>
+      <c r="AL21">
+        <v>-0.26</v>
+      </c>
+      <c r="AM21">
+        <v>-0.03</v>
+      </c>
+      <c r="AN21">
+        <v>-0.03</v>
+      </c>
+      <c r="AO21">
+        <v>-0.21</v>
+      </c>
+      <c r="AP21">
+        <v>0.12</v>
+      </c>
+      <c r="AQ21">
         <v>-0.17</v>
-      </c>
-      <c r="G21">
-        <v>0.13</v>
-      </c>
-      <c r="H21">
-        <v>0.16</v>
-      </c>
-      <c r="I21">
-        <v>0.15</v>
-      </c>
-      <c r="J21">
-        <v>0.12</v>
-      </c>
-      <c r="K21">
-        <v>0.19</v>
-      </c>
-      <c r="L21">
-        <v>0.32</v>
-      </c>
-      <c r="M21">
-        <v>0.01</v>
-      </c>
-      <c r="N21">
-        <v>0.04</v>
-      </c>
-      <c r="O21">
-        <v>-0.19</v>
-      </c>
-      <c r="P21">
-        <v>-0.25</v>
-      </c>
-      <c r="Q21">
-        <v>0.06</v>
-      </c>
-      <c r="R21">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="S21">
-        <v>-0.16</v>
-      </c>
-      <c r="T21">
-        <v>0.09</v>
-      </c>
-      <c r="U21">
-        <v>-0.17</v>
-      </c>
-      <c r="V21">
-        <v>-0.21</v>
-      </c>
-      <c r="W21">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="X21">
-        <v>-0.09</v>
-      </c>
-      <c r="Y21">
-        <v>0.13</v>
-      </c>
-      <c r="Z21">
-        <v>0.16</v>
-      </c>
-      <c r="AA21">
-        <v>0.16</v>
-      </c>
-      <c r="AB21">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AC21">
-        <v>0.15</v>
-      </c>
-      <c r="AD21">
-        <v>0.09</v>
-      </c>
-      <c r="AE21">
-        <v>0.21</v>
-      </c>
-      <c r="AF21">
-        <v>0.12</v>
-      </c>
-      <c r="AG21">
-        <v>0.03</v>
-      </c>
-      <c r="AH21">
-        <v>0.17</v>
-      </c>
-      <c r="AI21">
-        <v>0.19</v>
-      </c>
-      <c r="AJ21">
-        <v>0.13</v>
-      </c>
-      <c r="AK21">
-        <v>0.37</v>
-      </c>
-      <c r="AL21">
-        <v>0.09</v>
-      </c>
-      <c r="AM21">
-        <v>0.46</v>
-      </c>
-      <c r="AN21">
-        <v>0.32</v>
-      </c>
-      <c r="AO21">
-        <v>0.04</v>
-      </c>
-      <c r="AP21">
-        <v>-0.01</v>
-      </c>
-      <c r="AQ21">
-        <v>0.01</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -4251,127 +4170,127 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>-0.45</v>
+        <v>-0.19</v>
       </c>
       <c r="E22">
-        <v>-0.2</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="F22">
-        <v>-0.12</v>
+        <v>-0.17</v>
       </c>
       <c r="G22">
-        <v>-0.01</v>
+        <v>0.13</v>
       </c>
       <c r="H22">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I22">
+        <v>0.15</v>
+      </c>
+      <c r="J22">
         <v>0.12</v>
       </c>
-      <c r="J22">
-        <v>0.3</v>
-      </c>
       <c r="K22">
+        <v>0.19</v>
+      </c>
+      <c r="L22">
+        <v>0.32</v>
+      </c>
+      <c r="M22">
+        <v>0.01</v>
+      </c>
+      <c r="N22">
+        <v>0.04</v>
+      </c>
+      <c r="O22">
+        <v>-0.19</v>
+      </c>
+      <c r="P22">
+        <v>-0.25</v>
+      </c>
+      <c r="Q22">
+        <v>0.06</v>
+      </c>
+      <c r="R22">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="S22">
+        <v>-0.16</v>
+      </c>
+      <c r="T22">
+        <v>0.09</v>
+      </c>
+      <c r="U22">
+        <v>-0.17</v>
+      </c>
+      <c r="V22">
+        <v>-0.21</v>
+      </c>
+      <c r="W22">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L22">
-        <v>0.39</v>
-      </c>
-      <c r="M22">
-        <v>0.02</v>
-      </c>
-      <c r="N22">
-        <v>-0.45</v>
-      </c>
-      <c r="O22">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="P22">
-        <v>-0.27</v>
-      </c>
-      <c r="Q22">
+      <c r="X22">
+        <v>-0.09</v>
+      </c>
+      <c r="Y22">
+        <v>0.13</v>
+      </c>
+      <c r="Z22">
+        <v>0.16</v>
+      </c>
+      <c r="AA22">
+        <v>0.16</v>
+      </c>
+      <c r="AB22">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC22">
         <v>0.15</v>
       </c>
-      <c r="R22">
-        <v>-0.2</v>
-      </c>
-      <c r="S22">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="T22">
-        <v>-0.04</v>
-      </c>
-      <c r="U22">
-        <v>-0.12</v>
-      </c>
-      <c r="V22">
-        <v>-0.65</v>
-      </c>
-      <c r="W22">
-        <v>-0.01</v>
-      </c>
-      <c r="X22">
-        <v>-0.15</v>
-      </c>
-      <c r="Y22">
-        <v>0.08</v>
-      </c>
-      <c r="Z22">
-        <v>0.2</v>
-      </c>
-      <c r="AA22">
-        <v>-0.09</v>
-      </c>
-      <c r="AB22">
-        <v>0.46</v>
-      </c>
-      <c r="AC22">
+      <c r="AD22">
+        <v>0.09</v>
+      </c>
+      <c r="AE22">
+        <v>0.21</v>
+      </c>
+      <c r="AF22">
         <v>0.12</v>
       </c>
-      <c r="AD22">
-        <v>-0.01</v>
-      </c>
-      <c r="AE22">
-        <v>0.22</v>
-      </c>
-      <c r="AF22">
-        <v>0.3</v>
-      </c>
       <c r="AG22">
-        <v>-0.4</v>
+        <v>0.03</v>
       </c>
       <c r="AH22">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="AI22">
-        <v>0.14000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="AJ22">
-        <v>-0.63</v>
+        <v>0.13</v>
       </c>
       <c r="AK22">
         <v>0.37</v>
       </c>
       <c r="AL22">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="AM22">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="AN22">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="AO22">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="AP22">
-        <v>0.13</v>
+        <v>-0.01</v>
       </c>
       <c r="AQ22">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -4382,127 +4301,127 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23">
+        <v>-0.45</v>
+      </c>
+      <c r="E23">
+        <v>-0.2</v>
+      </c>
+      <c r="F23">
+        <v>-0.12</v>
+      </c>
+      <c r="G23">
+        <v>-0.01</v>
+      </c>
+      <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23">
+        <v>0.12</v>
+      </c>
+      <c r="J23">
+        <v>0.3</v>
+      </c>
+      <c r="K23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L23">
+        <v>0.39</v>
+      </c>
+      <c r="M23">
+        <v>0.02</v>
+      </c>
+      <c r="N23">
+        <v>-0.45</v>
+      </c>
+      <c r="O23">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="P23">
+        <v>-0.27</v>
+      </c>
+      <c r="Q23">
+        <v>0.15</v>
+      </c>
+      <c r="R23">
+        <v>-0.2</v>
+      </c>
+      <c r="S23">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="E23">
+      <c r="T23">
+        <v>-0.04</v>
+      </c>
+      <c r="U23">
+        <v>-0.12</v>
+      </c>
+      <c r="V23">
+        <v>-0.65</v>
+      </c>
+      <c r="W23">
+        <v>-0.01</v>
+      </c>
+      <c r="X23">
         <v>-0.15</v>
       </c>
-      <c r="F23">
-        <v>-0.18</v>
-      </c>
-      <c r="G23">
-        <v>0.16</v>
-      </c>
-      <c r="H23">
+      <c r="Y23">
         <v>0.08</v>
       </c>
-      <c r="I23">
-        <v>0.04</v>
-      </c>
-      <c r="J23">
-        <v>0.18</v>
-      </c>
-      <c r="K23">
-        <v>0.06</v>
-      </c>
-      <c r="L23">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M23">
-        <v>0.03</v>
-      </c>
-      <c r="N23">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O23">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="P23">
-        <v>-0.86</v>
-      </c>
-      <c r="Q23">
+      <c r="Z23">
+        <v>0.2</v>
+      </c>
+      <c r="AA23">
+        <v>-0.09</v>
+      </c>
+      <c r="AB23">
+        <v>0.46</v>
+      </c>
+      <c r="AC23">
+        <v>0.12</v>
+      </c>
+      <c r="AD23">
+        <v>-0.01</v>
+      </c>
+      <c r="AE23">
+        <v>0.22</v>
+      </c>
+      <c r="AF23">
+        <v>0.3</v>
+      </c>
+      <c r="AG23">
+        <v>-0.4</v>
+      </c>
+      <c r="AH23">
+        <v>0.3</v>
+      </c>
+      <c r="AI23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AJ23">
+        <v>-0.63</v>
+      </c>
+      <c r="AK23">
+        <v>0.37</v>
+      </c>
+      <c r="AL23">
+        <v>0.12</v>
+      </c>
+      <c r="AM23">
+        <v>0.39</v>
+      </c>
+      <c r="AN23">
+        <v>0.43</v>
+      </c>
+      <c r="AO23">
         <v>0.02</v>
       </c>
-      <c r="R23">
-        <v>-0.15</v>
-      </c>
-      <c r="S23">
-        <v>-0.56000000000000005</v>
-      </c>
-      <c r="T23">
-        <v>0.89</v>
-      </c>
-      <c r="U23">
-        <v>-0.18</v>
-      </c>
-      <c r="V23">
-        <v>-0.49</v>
-      </c>
-      <c r="W23">
-        <v>0.21</v>
-      </c>
-      <c r="X23">
-        <v>0.16</v>
-      </c>
-      <c r="Y23">
-        <v>-0.19</v>
-      </c>
-      <c r="Z23">
-        <v>0.08</v>
-      </c>
-      <c r="AA23">
-        <v>-0.05</v>
-      </c>
-      <c r="AB23">
+      <c r="AP23">
         <v>0.13</v>
       </c>
-      <c r="AC23">
-        <v>0.04</v>
-      </c>
-      <c r="AD23">
-        <v>-0.03</v>
-      </c>
-      <c r="AE23">
-        <v>0.16</v>
-      </c>
-      <c r="AF23">
-        <v>0.18</v>
-      </c>
-      <c r="AG23">
-        <v>-0.02</v>
-      </c>
-      <c r="AH23">
-        <v>0.23</v>
-      </c>
-      <c r="AI23">
-        <v>0.06</v>
-      </c>
-      <c r="AJ23">
-        <v>-0.09</v>
-      </c>
-      <c r="AK23">
-        <v>0.24</v>
-      </c>
-      <c r="AL23">
-        <v>-0.2</v>
-      </c>
-      <c r="AM23">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AN23">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AO23">
-        <v>0.25</v>
-      </c>
-      <c r="AP23">
-        <v>-0.23</v>
-      </c>
       <c r="AQ23">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -4513,127 +4432,127 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="E24">
+        <v>-0.15</v>
+      </c>
+      <c r="F24">
+        <v>-0.18</v>
+      </c>
+      <c r="G24">
+        <v>0.16</v>
+      </c>
+      <c r="H24">
+        <v>0.08</v>
+      </c>
+      <c r="I24">
+        <v>0.04</v>
+      </c>
+      <c r="J24">
+        <v>0.18</v>
+      </c>
+      <c r="K24">
+        <v>0.06</v>
+      </c>
+      <c r="L24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M24">
         <v>0.03</v>
       </c>
-      <c r="E24">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>0.22</v>
-      </c>
-      <c r="H24">
-        <v>0.42</v>
-      </c>
-      <c r="I24">
-        <v>0.67</v>
-      </c>
-      <c r="J24">
-        <v>-0.27</v>
-      </c>
-      <c r="K24">
+      <c r="N24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O24">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="P24">
+        <v>-0.86</v>
+      </c>
+      <c r="Q24">
+        <v>0.02</v>
+      </c>
+      <c r="R24">
         <v>-0.15</v>
       </c>
-      <c r="L24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24">
+      <c r="S24">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="T24">
+        <v>0.89</v>
+      </c>
+      <c r="U24">
+        <v>-0.18</v>
+      </c>
+      <c r="V24">
+        <v>-0.49</v>
+      </c>
+      <c r="W24">
+        <v>0.21</v>
+      </c>
+      <c r="X24">
+        <v>0.16</v>
+      </c>
+      <c r="Y24">
+        <v>-0.19</v>
+      </c>
+      <c r="Z24">
+        <v>0.08</v>
+      </c>
+      <c r="AA24">
+        <v>-0.05</v>
+      </c>
+      <c r="AB24">
+        <v>0.13</v>
+      </c>
+      <c r="AC24">
+        <v>0.04</v>
+      </c>
+      <c r="AD24">
+        <v>-0.03</v>
+      </c>
+      <c r="AE24">
+        <v>0.16</v>
+      </c>
+      <c r="AF24">
+        <v>0.18</v>
+      </c>
+      <c r="AG24">
+        <v>-0.02</v>
+      </c>
+      <c r="AH24">
+        <v>0.23</v>
+      </c>
+      <c r="AI24">
+        <v>0.06</v>
+      </c>
+      <c r="AJ24">
+        <v>-0.09</v>
+      </c>
+      <c r="AK24">
+        <v>0.24</v>
+      </c>
+      <c r="AL24">
+        <v>-0.2</v>
+      </c>
+      <c r="AM24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AN24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO24">
+        <v>0.25</v>
+      </c>
+      <c r="AP24">
+        <v>-0.23</v>
+      </c>
+      <c r="AQ24">
         <v>0.03</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>3</v>
-      </c>
-      <c r="R24" t="s">
-        <v>3</v>
-      </c>
-      <c r="S24">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="T24" t="s">
-        <v>3</v>
-      </c>
-      <c r="U24" t="s">
-        <v>3</v>
-      </c>
-      <c r="V24" t="s">
-        <v>3</v>
-      </c>
-      <c r="W24" t="s">
-        <v>3</v>
-      </c>
-      <c r="X24" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y24">
-        <v>0.22</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB24">
-        <v>0.42</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE24">
-        <v>0.67</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG24">
-        <v>-0.44</v>
-      </c>
-      <c r="AH24">
-        <v>-0.1</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>-0.3</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -4644,121 +4563,121 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25">
-        <v>0.17</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>-0.63</v>
+        <v>0.03</v>
+      </c>
+      <c r="E25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>-0.28000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="H25">
+        <v>0.42</v>
+      </c>
+      <c r="I25">
+        <v>0.67</v>
+      </c>
+      <c r="J25">
+        <v>-0.27</v>
+      </c>
+      <c r="K25">
+        <v>-0.15</v>
+      </c>
+      <c r="L25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>0.03</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s">
+        <v>3</v>
+      </c>
+      <c r="S25">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I25">
-        <v>0.04</v>
-      </c>
-      <c r="J25">
-        <v>0.11</v>
-      </c>
-      <c r="K25">
+      <c r="T25" t="s">
+        <v>3</v>
+      </c>
+      <c r="U25" t="s">
+        <v>3</v>
+      </c>
+      <c r="V25" t="s">
+        <v>3</v>
+      </c>
+      <c r="W25" t="s">
+        <v>3</v>
+      </c>
+      <c r="X25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y25">
+        <v>0.22</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB25">
+        <v>0.42</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE25">
+        <v>0.67</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG25">
+        <v>-0.44</v>
+      </c>
+      <c r="AH25">
+        <v>-0.1</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ25">
         <v>0</v>
       </c>
-      <c r="L25">
-        <v>0.68</v>
-      </c>
-      <c r="M25">
-        <v>0.37</v>
-      </c>
-      <c r="N25">
-        <v>0.59</v>
-      </c>
-      <c r="O25" t="s">
-        <v>3</v>
-      </c>
-      <c r="P25">
-        <v>-0.25</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>3</v>
-      </c>
-      <c r="R25" t="s">
-        <v>3</v>
-      </c>
-      <c r="S25" t="s">
-        <v>3</v>
-      </c>
-      <c r="T25" t="s">
-        <v>3</v>
-      </c>
-      <c r="U25" t="s">
-        <v>3</v>
-      </c>
-      <c r="V25">
-        <v>-0.63</v>
-      </c>
-      <c r="W25" t="s">
-        <v>3</v>
-      </c>
-      <c r="X25" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y25">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="Z25">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB25">
+      <c r="AK25">
         <v>-0.3</v>
       </c>
-      <c r="AC25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE25">
-        <v>0.04</v>
-      </c>
-      <c r="AF25">
-        <v>0.16</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AI25">
-        <v>0.44</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK25">
-        <v>-0.45</v>
-      </c>
       <c r="AL25" t="s">
         <v>3</v>
       </c>
-      <c r="AM25">
-        <v>0.68</v>
+      <c r="AM25" t="s">
+        <v>3</v>
       </c>
       <c r="AN25" t="s">
         <v>3</v>
       </c>
-      <c r="AO25">
-        <v>0.37</v>
+      <c r="AO25" t="s">
+        <v>3</v>
       </c>
       <c r="AP25" t="s">
         <v>3</v>
@@ -4769,55 +4688,55 @@
     </row>
     <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>0.33</v>
+        <v>39</v>
+      </c>
+      <c r="D26">
+        <v>0.17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>-0.1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>3</v>
+        <v>-0.63</v>
+      </c>
+      <c r="G26">
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H26">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I26">
-        <v>-0.24</v>
+        <v>0.04</v>
       </c>
       <c r="J26">
-        <v>0.31</v>
+        <v>0.11</v>
       </c>
       <c r="K26">
-        <v>0.22</v>
-      </c>
-      <c r="L26" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0.68</v>
+      </c>
+      <c r="M26">
+        <v>0.37</v>
+      </c>
+      <c r="N26">
+        <v>0.59</v>
       </c>
       <c r="O26" t="s">
         <v>3</v>
       </c>
-      <c r="P26" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26">
-        <v>0.33</v>
+      <c r="P26">
+        <v>-0.25</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>3</v>
       </c>
       <c r="R26" t="s">
         <v>3</v>
@@ -4825,14 +4744,14 @@
       <c r="S26" t="s">
         <v>3</v>
       </c>
-      <c r="T26">
-        <v>-0.1</v>
+      <c r="T26" t="s">
+        <v>3</v>
       </c>
       <c r="U26" t="s">
         <v>3</v>
       </c>
-      <c r="V26" t="s">
-        <v>3</v>
+      <c r="V26">
+        <v>-0.63</v>
       </c>
       <c r="W26" t="s">
         <v>3</v>
@@ -4840,56 +4759,56 @@
       <c r="X26" t="s">
         <v>3</v>
       </c>
-      <c r="Y26" t="s">
-        <v>3</v>
+      <c r="Y26">
+        <v>-0.28000000000000003</v>
       </c>
       <c r="Z26">
-        <v>0.2</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AA26" t="s">
         <v>3</v>
       </c>
-      <c r="AB26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC26">
-        <v>-0.24</v>
+      <c r="AB26">
+        <v>-0.3</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>3</v>
       </c>
       <c r="AD26" t="s">
         <v>3</v>
       </c>
-      <c r="AE26" t="s">
-        <v>3</v>
+      <c r="AE26">
+        <v>0.04</v>
       </c>
       <c r="AF26">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="AG26" t="s">
         <v>3</v>
       </c>
-      <c r="AH26" t="s">
-        <v>3</v>
+      <c r="AH26">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI26">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="AJ26" t="s">
         <v>3</v>
       </c>
-      <c r="AK26" t="s">
-        <v>3</v>
+      <c r="AK26">
+        <v>-0.45</v>
       </c>
       <c r="AL26" t="s">
         <v>3</v>
       </c>
-      <c r="AM26" t="s">
-        <v>3</v>
+      <c r="AM26">
+        <v>0.68</v>
       </c>
       <c r="AN26" t="s">
         <v>3</v>
       </c>
-      <c r="AO26" t="s">
-        <v>3</v>
+      <c r="AO26">
+        <v>0.37</v>
       </c>
       <c r="AP26" t="s">
         <v>3</v>
@@ -4906,37 +4825,37 @@
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="E27">
+        <v>0.33</v>
+      </c>
+      <c r="F27">
+        <v>-0.1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>0.2</v>
+      </c>
+      <c r="I27">
+        <v>-0.24</v>
+      </c>
+      <c r="J27">
+        <v>0.31</v>
+      </c>
+      <c r="K27">
         <v>0.22</v>
       </c>
-      <c r="F27">
-        <v>-1.28</v>
-      </c>
-      <c r="G27" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27">
-        <v>-0.04</v>
-      </c>
-      <c r="J27">
-        <v>-0.13</v>
-      </c>
-      <c r="K27" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="M27">
-        <v>-0.09</v>
+      <c r="L27" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" t="s">
+        <v>3</v>
       </c>
       <c r="N27" t="s">
         <v>3</v>
@@ -4947,63 +4866,63 @@
       <c r="P27" t="s">
         <v>3</v>
       </c>
-      <c r="Q27" t="s">
-        <v>3</v>
+      <c r="Q27">
+        <v>0.33</v>
       </c>
       <c r="R27" t="s">
         <v>3</v>
       </c>
-      <c r="S27">
+      <c r="S27" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>-0.1</v>
+      </c>
+      <c r="U27" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" t="s">
+        <v>3</v>
+      </c>
+      <c r="X27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z27">
+        <v>0.2</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC27">
+        <v>-0.24</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF27">
+        <v>0.31</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI27">
         <v>0.22</v>
       </c>
-      <c r="T27" t="s">
-        <v>3</v>
-      </c>
-      <c r="U27" t="s">
-        <v>3</v>
-      </c>
-      <c r="V27">
-        <v>-1.28</v>
-      </c>
-      <c r="W27" t="s">
-        <v>3</v>
-      </c>
-      <c r="X27" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE27">
-        <v>-0.04</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH27">
-        <v>-0.13</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ27" t="s">
         <v>3</v>
       </c>
@@ -5016,11 +4935,11 @@
       <c r="AM27" t="s">
         <v>3</v>
       </c>
-      <c r="AN27">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AO27">
-        <v>-0.09</v>
+      <c r="AN27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>3</v>
       </c>
       <c r="AP27" t="s">
         <v>3</v>
@@ -5037,13 +4956,13 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
-      <c r="E28" t="s">
-        <v>3</v>
+      <c r="E28">
+        <v>0.22</v>
       </c>
       <c r="F28">
         <v>-1.28</v>
@@ -5057,17 +4976,17 @@
       <c r="I28">
         <v>-0.04</v>
       </c>
-      <c r="J28" t="s">
-        <v>3</v>
+      <c r="J28">
+        <v>-0.13</v>
       </c>
       <c r="K28" t="s">
         <v>3</v>
       </c>
-      <c r="L28" t="s">
-        <v>3</v>
-      </c>
-      <c r="M28" t="s">
-        <v>3</v>
+      <c r="L28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M28">
+        <v>-0.09</v>
       </c>
       <c r="N28" t="s">
         <v>3</v>
@@ -5084,8 +5003,8 @@
       <c r="R28" t="s">
         <v>3</v>
       </c>
-      <c r="S28" t="s">
-        <v>3</v>
+      <c r="S28">
+        <v>0.22</v>
       </c>
       <c r="T28" t="s">
         <v>3</v>
@@ -5129,8 +5048,8 @@
       <c r="AG28" t="s">
         <v>3</v>
       </c>
-      <c r="AH28" t="s">
-        <v>3</v>
+      <c r="AH28">
+        <v>-0.13</v>
       </c>
       <c r="AI28" t="s">
         <v>3</v>
@@ -5147,11 +5066,11 @@
       <c r="AM28" t="s">
         <v>3</v>
       </c>
-      <c r="AN28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>3</v>
+      <c r="AN28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AO28">
+        <v>-0.09</v>
       </c>
       <c r="AP28" t="s">
         <v>3</v>
@@ -5168,10 +5087,10 @@
         <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29">
-        <v>-0.24</v>
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
@@ -5179,29 +5098,29 @@
       <c r="F29">
         <v>-1.28</v>
       </c>
-      <c r="G29">
-        <v>-0.24</v>
-      </c>
-      <c r="H29">
-        <v>-0.36</v>
+      <c r="G29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>3</v>
       </c>
       <c r="I29">
         <v>-0.04</v>
       </c>
-      <c r="J29">
-        <v>-0.21</v>
-      </c>
-      <c r="K29">
-        <v>-0.37</v>
-      </c>
-      <c r="L29">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="M29">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="N29">
-        <v>-0.24</v>
+      <c r="J29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>3</v>
       </c>
       <c r="O29" t="s">
         <v>3</v>
@@ -5227,8 +5146,8 @@
       <c r="V29">
         <v>-1.28</v>
       </c>
-      <c r="W29">
-        <v>-0.24</v>
+      <c r="W29" t="s">
+        <v>3</v>
       </c>
       <c r="X29" t="s">
         <v>3</v>
@@ -5236,8 +5155,8 @@
       <c r="Y29" t="s">
         <v>3</v>
       </c>
-      <c r="Z29">
-        <v>-0.36</v>
+      <c r="Z29" t="s">
+        <v>3</v>
       </c>
       <c r="AA29" t="s">
         <v>3</v>
@@ -5254,17 +5173,17 @@
       <c r="AE29">
         <v>-0.04</v>
       </c>
-      <c r="AF29">
-        <v>-0.2</v>
+      <c r="AF29" t="s">
+        <v>3</v>
       </c>
       <c r="AG29" t="s">
         <v>3</v>
       </c>
-      <c r="AH29">
-        <v>-0.22</v>
-      </c>
-      <c r="AI29">
-        <v>-0.37</v>
+      <c r="AH29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>3</v>
       </c>
       <c r="AJ29" t="s">
         <v>3</v>
@@ -5278,11 +5197,11 @@
       <c r="AM29" t="s">
         <v>3</v>
       </c>
-      <c r="AN29">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AO29">
-        <v>0.28999999999999998</v>
+      <c r="AN29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>3</v>
       </c>
       <c r="AP29" t="s">
         <v>3</v>
@@ -5299,40 +5218,40 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>-0.24</v>
       </c>
       <c r="E30" t="s">
         <v>3</v>
       </c>
-      <c r="F30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" t="s">
-        <v>3</v>
+      <c r="F30">
+        <v>-1.28</v>
+      </c>
+      <c r="G30">
+        <v>-0.24</v>
+      </c>
+      <c r="H30">
+        <v>-0.36</v>
+      </c>
+      <c r="I30">
+        <v>-0.04</v>
       </c>
       <c r="J30">
-        <v>-0.17</v>
-      </c>
-      <c r="K30" t="s">
-        <v>3</v>
-      </c>
-      <c r="L30" t="s">
-        <v>3</v>
+        <v>-0.21</v>
+      </c>
+      <c r="K30">
+        <v>-0.37</v>
+      </c>
+      <c r="L30">
+        <v>0.57999999999999996</v>
       </c>
       <c r="M30">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N30" t="s">
-        <v>3</v>
+      <c r="N30">
+        <v>-0.24</v>
       </c>
       <c r="O30" t="s">
         <v>3</v>
@@ -5355,11 +5274,11 @@
       <c r="U30" t="s">
         <v>3</v>
       </c>
-      <c r="V30" t="s">
-        <v>3</v>
-      </c>
-      <c r="W30" t="s">
-        <v>3</v>
+      <c r="V30">
+        <v>-1.28</v>
+      </c>
+      <c r="W30">
+        <v>-0.24</v>
       </c>
       <c r="X30" t="s">
         <v>3</v>
@@ -5367,8 +5286,8 @@
       <c r="Y30" t="s">
         <v>3</v>
       </c>
-      <c r="Z30" t="s">
-        <v>3</v>
+      <c r="Z30">
+        <v>-0.36</v>
       </c>
       <c r="AA30" t="s">
         <v>3</v>
@@ -5382,20 +5301,20 @@
       <c r="AD30" t="s">
         <v>3</v>
       </c>
-      <c r="AE30" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>3</v>
+      <c r="AE30">
+        <v>-0.04</v>
+      </c>
+      <c r="AF30">
+        <v>-0.2</v>
       </c>
       <c r="AG30" t="s">
         <v>3</v>
       </c>
       <c r="AH30">
-        <v>-0.17</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>3</v>
+        <v>-0.22</v>
+      </c>
+      <c r="AI30">
+        <v>-0.37</v>
       </c>
       <c r="AJ30" t="s">
         <v>3</v>
@@ -5409,8 +5328,8 @@
       <c r="AM30" t="s">
         <v>3</v>
       </c>
-      <c r="AN30" t="s">
-        <v>3</v>
+      <c r="AN30">
+        <v>0.57999999999999996</v>
       </c>
       <c r="AO30">
         <v>0.28999999999999998</v>
@@ -5424,43 +5343,43 @@
     </row>
     <row r="31" spans="1:43">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
-      <c r="E31">
-        <v>0.34</v>
-      </c>
-      <c r="F31">
-        <v>-0.05</v>
-      </c>
-      <c r="G31">
-        <v>-1.07</v>
-      </c>
-      <c r="H31">
-        <v>-1.33</v>
-      </c>
-      <c r="I31">
-        <v>-0.31</v>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>3</v>
       </c>
       <c r="J31">
-        <v>0.13</v>
-      </c>
-      <c r="K31">
-        <v>-0.14000000000000001</v>
+        <v>-0.17</v>
+      </c>
+      <c r="K31" t="s">
+        <v>3</v>
       </c>
       <c r="L31" t="s">
         <v>3</v>
       </c>
       <c r="M31">
-        <v>-0.26</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N31" t="s">
         <v>3</v>
@@ -5477,11 +5396,11 @@
       <c r="R31" t="s">
         <v>3</v>
       </c>
-      <c r="S31">
-        <v>0.34</v>
-      </c>
-      <c r="T31">
-        <v>-0.05</v>
+      <c r="S31" t="s">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s">
+        <v>3</v>
       </c>
       <c r="U31" t="s">
         <v>3</v>
@@ -5489,32 +5408,32 @@
       <c r="V31" t="s">
         <v>3</v>
       </c>
-      <c r="W31">
-        <v>-2.37</v>
+      <c r="W31" t="s">
+        <v>3</v>
       </c>
       <c r="X31" t="s">
         <v>3</v>
       </c>
-      <c r="Y31">
-        <v>0.23</v>
-      </c>
-      <c r="Z31">
-        <v>-2.88</v>
+      <c r="Y31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>3</v>
       </c>
       <c r="AA31" t="s">
         <v>3</v>
       </c>
-      <c r="AB31">
-        <v>0.22</v>
-      </c>
-      <c r="AC31">
-        <v>-0.49</v>
+      <c r="AB31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>3</v>
       </c>
       <c r="AD31" t="s">
         <v>3</v>
       </c>
-      <c r="AE31">
-        <v>-0.13</v>
+      <c r="AE31" t="s">
+        <v>3</v>
       </c>
       <c r="AF31" t="s">
         <v>3</v>
@@ -5523,7 +5442,7 @@
         <v>3</v>
       </c>
       <c r="AH31">
-        <v>0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="AI31" t="s">
         <v>3</v>
@@ -5531,8 +5450,8 @@
       <c r="AJ31" t="s">
         <v>3</v>
       </c>
-      <c r="AK31">
-        <v>-0.14000000000000001</v>
+      <c r="AK31" t="s">
+        <v>3</v>
       </c>
       <c r="AL31" t="s">
         <v>3</v>
@@ -5543,11 +5462,11 @@
       <c r="AN31" t="s">
         <v>3</v>
       </c>
-      <c r="AO31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP31">
-        <v>-0.26</v>
+      <c r="AO31">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>3</v>
       </c>
       <c r="AQ31" t="s">
         <v>3</v>
@@ -5555,130 +5474,130 @@
     </row>
     <row r="32" spans="1:43">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32">
-        <v>0.02</v>
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
       </c>
       <c r="E32">
+        <v>0.34</v>
+      </c>
+      <c r="F32">
+        <v>-0.05</v>
+      </c>
+      <c r="G32">
+        <v>-1.07</v>
+      </c>
+      <c r="H32">
+        <v>-1.33</v>
+      </c>
+      <c r="I32">
+        <v>-0.31</v>
+      </c>
+      <c r="J32">
+        <v>0.13</v>
+      </c>
+      <c r="K32">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="L32" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32">
         <v>-0.26</v>
       </c>
-      <c r="F32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32">
-        <v>0.21</v>
-      </c>
-      <c r="H32">
+      <c r="N32" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>0.34</v>
+      </c>
+      <c r="T32">
+        <v>-0.05</v>
+      </c>
+      <c r="U32" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>-2.37</v>
+      </c>
+      <c r="X32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y32">
         <v>0.23</v>
       </c>
-      <c r="I32">
-        <v>0.39</v>
-      </c>
-      <c r="J32">
-        <v>0.09</v>
-      </c>
-      <c r="K32">
-        <v>-0.06</v>
-      </c>
-      <c r="L32" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32">
-        <v>0.23</v>
-      </c>
-      <c r="N32">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="O32">
-        <v>0.12</v>
-      </c>
-      <c r="P32" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32">
+      <c r="Z32">
+        <v>-2.88</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB32">
+        <v>0.22</v>
+      </c>
+      <c r="AC32">
+        <v>-0.49</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE32">
+        <v>-0.13</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH32">
+        <v>0.13</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK32">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP32">
         <v>-0.26</v>
-      </c>
-      <c r="S32" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" t="s">
-        <v>3</v>
-      </c>
-      <c r="V32" t="s">
-        <v>3</v>
-      </c>
-      <c r="W32">
-        <v>0.21</v>
-      </c>
-      <c r="X32" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z32">
-        <v>0.23</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC32">
-        <v>0.31</v>
-      </c>
-      <c r="AD32">
-        <v>0.47</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG32">
-        <v>0.09</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI32">
-        <v>0.03</v>
-      </c>
-      <c r="AJ32">
-        <v>-0.15</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP32">
-        <v>0.23</v>
       </c>
       <c r="AQ32" t="s">
         <v>3</v>
@@ -5686,49 +5605,49 @@
     </row>
     <row r="33" spans="1:43">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="D33">
+        <v>0.02</v>
+      </c>
+      <c r="E33">
+        <v>-0.26</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
       </c>
-      <c r="G33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>0.46</v>
+      <c r="G33">
+        <v>0.21</v>
+      </c>
+      <c r="H33">
+        <v>0.23</v>
+      </c>
+      <c r="I33">
+        <v>0.39</v>
+      </c>
+      <c r="J33">
+        <v>0.09</v>
+      </c>
+      <c r="K33">
+        <v>-0.06</v>
+      </c>
+      <c r="L33" t="s">
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>-0.16</v>
-      </c>
-      <c r="N33" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" t="s">
-        <v>3</v>
+        <v>0.23</v>
+      </c>
+      <c r="N33">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="O33">
+        <v>0.12</v>
       </c>
       <c r="P33" t="s">
         <v>3</v>
@@ -5736,8 +5655,8 @@
       <c r="Q33" t="s">
         <v>3</v>
       </c>
-      <c r="R33" t="s">
-        <v>3</v>
+      <c r="R33">
+        <v>-0.26</v>
       </c>
       <c r="S33" t="s">
         <v>3</v>
@@ -5751,8 +5670,8 @@
       <c r="V33" t="s">
         <v>3</v>
       </c>
-      <c r="W33" t="s">
-        <v>3</v>
+      <c r="W33">
+        <v>0.21</v>
       </c>
       <c r="X33" t="s">
         <v>3</v>
@@ -5760,8 +5679,8 @@
       <c r="Y33" t="s">
         <v>3</v>
       </c>
-      <c r="Z33" t="s">
-        <v>3</v>
+      <c r="Z33">
+        <v>0.23</v>
       </c>
       <c r="AA33" t="s">
         <v>3</v>
@@ -5769,11 +5688,11 @@
       <c r="AB33" t="s">
         <v>3</v>
       </c>
-      <c r="AC33" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>3</v>
+      <c r="AC33">
+        <v>0.31</v>
+      </c>
+      <c r="AD33">
+        <v>0.47</v>
       </c>
       <c r="AE33" t="s">
         <v>3</v>
@@ -5781,23 +5700,23 @@
       <c r="AF33" t="s">
         <v>3</v>
       </c>
-      <c r="AG33" t="s">
-        <v>3</v>
+      <c r="AG33">
+        <v>0.09</v>
       </c>
       <c r="AH33" t="s">
         <v>3</v>
       </c>
-      <c r="AI33" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>3</v>
+      <c r="AI33">
+        <v>0.03</v>
+      </c>
+      <c r="AJ33">
+        <v>-0.15</v>
       </c>
       <c r="AK33" t="s">
         <v>3</v>
       </c>
-      <c r="AL33">
-        <v>0.46</v>
+      <c r="AL33" t="s">
+        <v>3</v>
       </c>
       <c r="AM33" t="s">
         <v>3</v>
@@ -5805,11 +5724,11 @@
       <c r="AN33" t="s">
         <v>3</v>
       </c>
-      <c r="AO33">
-        <v>-0.16</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>3</v>
+      <c r="AO33" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <v>0.23</v>
       </c>
       <c r="AQ33" t="s">
         <v>3</v>
@@ -5823,131 +5742,259 @@
         <v>54</v>
       </c>
       <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>0.46</v>
+      </c>
+      <c r="M34">
+        <v>-0.16</v>
+      </c>
+      <c r="N34" t="s">
+        <v>3</v>
+      </c>
+      <c r="O34" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s">
+        <v>3</v>
+      </c>
+      <c r="U34" t="s">
+        <v>3</v>
+      </c>
+      <c r="V34" t="s">
+        <v>3</v>
+      </c>
+      <c r="W34" t="s">
+        <v>3</v>
+      </c>
+      <c r="X34" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL34">
+        <v>0.46</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>-0.16</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
         <v>56</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>0.36</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>0.43</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>-0.31</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>-0.06</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>0.44</v>
       </c>
-      <c r="I34">
+      <c r="I35">
         <v>0.36</v>
       </c>
-      <c r="J34">
+      <c r="J35">
         <v>0.39</v>
       </c>
-      <c r="K34">
+      <c r="K35">
         <v>0.24</v>
       </c>
-      <c r="L34">
+      <c r="L35">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="M34">
+      <c r="M35">
         <v>-0.47</v>
       </c>
-      <c r="N34">
+      <c r="N35">
         <v>0.36</v>
       </c>
-      <c r="O34">
+      <c r="O35">
         <v>2.56</v>
       </c>
-      <c r="P34">
+      <c r="P35">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Q34">
+      <c r="Q35">
         <v>0.43</v>
       </c>
-      <c r="R34" t="s">
-        <v>3</v>
-      </c>
-      <c r="S34" t="s">
-        <v>3</v>
-      </c>
-      <c r="T34" t="s">
-        <v>3</v>
-      </c>
-      <c r="U34">
+      <c r="R35" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35">
         <v>-0.51</v>
       </c>
-      <c r="V34">
+      <c r="V35">
         <v>-0.11</v>
       </c>
-      <c r="W34">
+      <c r="W35">
         <v>0.6</v>
       </c>
-      <c r="X34">
+      <c r="X35">
         <v>-0.73</v>
       </c>
-      <c r="Y34" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z34">
+      <c r="Y35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z35">
         <v>0.51</v>
       </c>
-      <c r="AA34">
+      <c r="AA35">
         <v>-0.19</v>
       </c>
-      <c r="AB34">
+      <c r="AB35">
         <v>0.44</v>
       </c>
-      <c r="AC34">
+      <c r="AC35">
         <v>0.5</v>
       </c>
-      <c r="AD34">
+      <c r="AD35">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AE34">
+      <c r="AE35">
         <v>0.36</v>
       </c>
-      <c r="AF34">
+      <c r="AF35">
         <v>0.66</v>
       </c>
-      <c r="AG34">
+      <c r="AG35">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AH34">
+      <c r="AH35">
         <v>0.39</v>
       </c>
-      <c r="AI34">
+      <c r="AI35">
         <v>0.24</v>
       </c>
-      <c r="AJ34">
+      <c r="AJ35">
         <v>0</v>
       </c>
-      <c r="AK34">
+      <c r="AK35">
         <v>0.25</v>
       </c>
-      <c r="AL34" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM34">
+      <c r="AL35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM35">
         <v>-0.31</v>
       </c>
-      <c r="AN34">
+      <c r="AN35">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="AO34" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP34">
+      <c r="AO35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP35">
         <v>-0.6</v>
       </c>
-      <c r="AQ34">
+      <c r="AQ35">
         <v>-0.35</v>
       </c>
-    </row>
-    <row r="37" spans="1:43">
-      <c r="A37" s="2"/>
     </row>
     <row r="38" spans="1:43">
       <c r="A38" s="2"/>
@@ -6073,7 +6120,10 @@
       <c r="A78" s="2"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="1"/>
+      <c r="A79" s="2"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
